--- a/Screen_Win/Requirement_List.xlsx
+++ b/Screen_Win/Requirement_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>Addional Item and Pax Change (on Saved Bill)</t>
   </si>
   <si>
     <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>AddonOns</t>
@@ -169,11 +172,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -197,17 +207,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +244,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,98 +315,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,13 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,28 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +617,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -632,45 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -679,153 +680,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,28 +855,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20" customHeight="1"/>
@@ -1195,326 +1211,410 @@
     <col min="17" max="17" width="16.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:17">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:17">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="Q7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
+      <c r="A13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
+      <c r="A18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
+      <c r="A23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
+      <c r="A26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
+      <c r="A28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
+      <c r="A29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
+      <c r="A30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="5"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
+    <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:2">
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>47</v>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>48</v>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Screen_Win/Requirement_List.xlsx
+++ b/Screen_Win/Requirement_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,22 +208,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -271,6 +278,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,14 +314,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -315,28 +321,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -389,13 +389,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +509,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,151 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,16 +599,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,6 +661,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -680,27 +695,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,130 +718,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20" customHeight="1"/>
@@ -1222,11 +1222,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -1307,12 +1310,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:2">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -1335,12 +1341,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -1404,11 +1413,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
@@ -1430,11 +1442,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
+    <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
@@ -1454,12 +1469,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:2">
+    <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -1519,11 +1537,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
+    <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="5"/>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">

--- a/Screen_Win/Requirement_List.xlsx
+++ b/Screen_Win/Requirement_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Addional Item and Pax Change (on Saved Bill)</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Change Pin</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>triple</t>
+  </si>
+  <si>
+    <t>four</t>
   </si>
   <si>
     <t>Waiting Approval</t>
@@ -172,8 +184,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -201,28 +213,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,23 +243,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,39 +282,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,40 +312,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,187 +407,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,21 +606,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +636,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -660,47 +707,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,143 +721,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,16 +879,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20" customHeight="1"/>
@@ -1248,7 +1263,7 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1260,7 +1275,7 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1274,34 +1289,54 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="J6" t="s">
         <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="Q7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1309,10 +1344,12 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1320,10 +1357,12 @@
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1331,19 +1370,23 @@
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1351,10 +1394,12 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -1362,10 +1407,11 @@
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -1376,7 +1422,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1387,7 +1433,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -1398,13 +1444,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -1415,7 +1461,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
@@ -1424,7 +1470,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1435,7 +1481,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="3" t="s">
@@ -1444,7 +1490,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
@@ -1453,7 +1499,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
@@ -1462,7 +1508,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3" t="s">
@@ -1471,7 +1517,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1482,19 +1528,19 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -1502,13 +1548,13 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3" t="s">
@@ -1517,7 +1563,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1528,7 +1574,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -1539,7 +1585,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="3" t="s">
@@ -1548,7 +1594,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3" t="s">
@@ -1557,7 +1603,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
@@ -1566,37 +1612,37 @@
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -1607,7 +1653,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1618,7 +1664,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -1629,7 +1675,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
